--- a/Excel_Files/Stats_Populations/1_cm/784_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/784_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002657170706721464</v>
+        <v>0.005879749213615687</v>
       </c>
       <c r="D2">
-        <v>0.0004434317859073192</v>
+        <v>0.00568006561745774</v>
       </c>
       <c r="E2">
-        <v>0.0003863183097742978</v>
+        <v>0.005733152445182113</v>
       </c>
       <c r="F2">
-        <v>0.0003902368515570364</v>
+        <v>0.005735873382283366</v>
       </c>
       <c r="G2">
-        <v>0.0002101623954055056</v>
+        <v>0.005316073112530233</v>
       </c>
       <c r="H2">
-        <v>0.0004434317859073192</v>
+        <v>0.005879749213615687</v>
       </c>
       <c r="I2">
-        <v>0.0005505809389928156</v>
+        <v>0.005891201180166332</v>
       </c>
       <c r="J2">
-        <v>0.0006167122663422069</v>
+        <v>0.00571496501553008</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0001542493788765175</v>
+        <v>0.005400823217078347</v>
       </c>
       <c r="D3">
-        <v>0.0003830611935592398</v>
+        <v>0.005299104820817487</v>
       </c>
       <c r="E3">
-        <v>0.0002577173193015779</v>
+        <v>0.005395933041012913</v>
       </c>
       <c r="F3">
-        <v>0.0001712427296205242</v>
+        <v>0.005052435611883631</v>
       </c>
       <c r="G3">
-        <v>0.0001599132500276975</v>
+        <v>0.005106313876267338</v>
       </c>
       <c r="H3">
-        <v>0.000246966719875543</v>
+        <v>0.005287172916805704</v>
       </c>
       <c r="I3">
-        <v>0.0002837119316637794</v>
+        <v>0.005737080602871156</v>
       </c>
       <c r="J3">
-        <v>0.0001675974642238439</v>
+        <v>0.005348153329139521</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001014154805982953</v>
+        <v>0.004980063052971793</v>
       </c>
       <c r="D4">
-        <v>0.0001886089239915496</v>
+        <v>0.005055136195659689</v>
       </c>
       <c r="E4">
-        <v>0.0001734694414815503</v>
+        <v>0.005085679344192033</v>
       </c>
       <c r="F4">
-        <v>7.225087055953061E-05</v>
+        <v>0.004654124550801667</v>
       </c>
       <c r="G4">
-        <v>6.317187944299603E-05</v>
+        <v>0.004482272721211887</v>
       </c>
       <c r="H4">
-        <v>0.0001274882558898607</v>
+        <v>0.004951188354769353</v>
       </c>
       <c r="I4">
-        <v>0.000175948766909172</v>
+        <v>0.005537102812299253</v>
       </c>
       <c r="J4">
-        <v>5.321500698676486E-05</v>
+        <v>0.004512980181813458</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>6.741060885670474E-06</v>
+        <v>0.002636391193854306</v>
       </c>
       <c r="D5">
-        <v>8.349314686132406E-06</v>
+        <v>0.002785505809264338</v>
       </c>
       <c r="E5">
-        <v>7.77495130402437E-06</v>
+        <v>0.002718711794004666</v>
       </c>
       <c r="F5">
-        <v>4.034632789535297E-06</v>
+        <v>0.002269284799440625</v>
       </c>
       <c r="G5">
-        <v>3.017076690619795E-06</v>
+        <v>0.002073481915086146</v>
       </c>
       <c r="H5">
-        <v>4.927219988320466E-06</v>
+        <v>0.002390557076254997</v>
       </c>
       <c r="I5">
-        <v>7.146546223252754E-06</v>
+        <v>0.002629335252760007</v>
       </c>
       <c r="J5">
-        <v>4.534215801638988E-06</v>
+        <v>0.002326891407014267</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>4.320494258923959E-06</v>
+        <v>0.002310126205533517</v>
       </c>
       <c r="D6">
-        <v>4.689778108556764E-06</v>
+        <v>0.002381478077113361</v>
       </c>
       <c r="E6">
-        <v>3.921139599773338E-06</v>
+        <v>0.002256515913354236</v>
       </c>
       <c r="F6">
-        <v>1.936720094226462E-06</v>
+        <v>0.001822582791256629</v>
       </c>
       <c r="G6">
-        <v>1.699908573847986E-06</v>
+        <v>0.001743812991461873</v>
       </c>
       <c r="H6">
-        <v>2.269220193335759E-06</v>
+        <v>0.001903714568752681</v>
       </c>
       <c r="I6">
-        <v>4.29720134329582E-06</v>
+        <v>0.002253126419387147</v>
       </c>
       <c r="J6">
-        <v>2.502129085689088E-06</v>
+        <v>0.001894399118889223</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.114305478088839E-06</v>
+        <v>0.001868509106704159</v>
       </c>
       <c r="D7">
-        <v>2.454187672242998E-06</v>
+        <v>0.001962870258497725</v>
       </c>
       <c r="E7">
-        <v>1.042789758123528E-06</v>
+        <v>0.001488725440819971</v>
       </c>
       <c r="F7">
-        <v>6.367624114587707E-07</v>
+        <v>0.001310426903297588</v>
       </c>
       <c r="G7">
-        <v>8.498579345315411E-07</v>
+        <v>0.001383506392306755</v>
       </c>
       <c r="H7">
-        <v>6.367624114587707E-07</v>
+        <v>0.001310426903297588</v>
       </c>
       <c r="I7">
-        <v>2.186573010130084E-06</v>
+        <v>0.001890822648327036</v>
       </c>
       <c r="J7">
-        <v>1.688148395188457E-06</v>
+        <v>0.001698206244234162</v>
       </c>
     </row>
   </sheetData>
